--- a/Formata e Inserir Tabelas.xlsx
+++ b/Formata e Inserir Tabelas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\71338739409\Desktop\Excel Basico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CAB43D3-6D8C-4E3A-B122-7535A85B9B70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D4BB51-936D-4482-A121-4973390A7A05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{78958F83-4CF4-45A5-8CAE-9BA849D1A93F}"/>
   </bookViews>
@@ -274,8 +274,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -333,7 +367,66 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -391,100 +484,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="12" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -617,6 +617,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-62EA-4437-9C8E-893E6AF21A94}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -659,6 +664,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-62EA-4437-9C8E-893E6AF21A94}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -701,6 +711,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-62EA-4437-9C8E-893E6AF21A94}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -743,6 +758,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-62EA-4437-9C8E-893E6AF21A94}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -785,6 +805,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-62EA-4437-9C8E-893E6AF21A94}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -827,6 +852,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-62EA-4437-9C8E-893E6AF21A94}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
@@ -1584,8 +1614,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Doces ">
@@ -1608,7 +1638,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1662,8 +1692,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Preços">
@@ -1686,7 +1716,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1740,8 +1770,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Salgados">
@@ -1764,7 +1794,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1818,8 +1848,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Preços2">
@@ -1842,7 +1872,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1995,22 +2025,22 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EBD888F6-EBFE-4E6C-AFFE-33E63D7BA3E6}" name="Doces " totalsRowLabel="Total" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{8AE4D71A-DB1B-4E51-B243-E5ADD2A6B58E}" name="Preços" totalsRowFunction="max" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F6CE5FA6-4902-4B14-B8E7-0380A40ACC4D}" name="Salgados" totalsRowFunction="count" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{95ED7BE6-7F94-4C36-A31E-0B7BDB1B04A1}" name="Preços2" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EBD888F6-EBFE-4E6C-AFFE-33E63D7BA3E6}" name="Doces " totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{8AE4D71A-DB1B-4E51-B243-E5ADD2A6B58E}" name="Preços" totalsRowFunction="max" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{F6CE5FA6-4902-4B14-B8E7-0380A40ACC4D}" name="Salgados" totalsRowFunction="count" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{95ED7BE6-7F94-4C36-A31E-0B7BDB1B04A1}" name="Preços2" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B6888167-7E93-4639-814E-2860FD8035C4}" name="Tabela4" displayName="Tabela4" ref="F3:F10" totalsRowCount="1" headerRowDxfId="9" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B6888167-7E93-4639-814E-2860FD8035C4}" name="Tabela4" displayName="Tabela4" ref="F3:F10" totalsRowCount="1" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="F3:F9" xr:uid="{5BC6F353-41F2-4AD5-B4D4-A986A5D3BF88}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{1B0AB344-6267-4605-A8C4-EE6C28D44CB5}" name="Nº" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{1B0AB344-6267-4605-A8C4-EE6C28D44CB5}" name="Nº" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2316,7 +2346,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
